--- a/2016/account.xlsx
+++ b/2016/account.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>Data</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>carpet</t>
+  </si>
+  <si>
+    <t>watermelon</t>
   </si>
 </sst>
 </file>
@@ -525,15 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,16 +546,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,325 +969,329 @@
   <sheetData>
     <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <v>39</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <v>2.4</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <f>SUM(F6:F35)+SUM(H6:H35)</f>
-        <v>41.4</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
@@ -1293,7 +1300,7 @@
       </c>
       <c r="F38" s="1">
         <f>F37/2</f>
-        <v>20.7</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
@@ -1302,7 +1309,7 @@
       </c>
       <c r="F39" s="1">
         <f>SUM(F6:F35)-F38</f>
-        <v>20.7</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
@@ -1311,7 +1318,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM(H6:H35)-F38</f>
-        <v>-20.7</v>
+        <v>-11.7</v>
       </c>
     </row>
   </sheetData>
@@ -1344,324 +1351,324 @@
   <sheetData>
     <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <f>SUM(F6:F36)+SUM(H6:H36)</f>
         <v>0</v>
       </c>
@@ -1722,315 +1729,315 @@
   <sheetData>
     <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <f>SUM(F6:F35)+SUM(H6:H35)</f>
         <v>0</v>
       </c>

--- a/2016/account.xlsx
+++ b/2016/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jul" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>Data</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>watermelon</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>垃圾袋</t>
   </si>
 </sst>
 </file>
@@ -954,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,8 +1272,12 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="4">
+        <v>9</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
@@ -1275,8 +1285,12 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
+      <c r="H35" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E36" s="9"/>
@@ -1291,7 +1305,7 @@
       </c>
       <c r="F37" s="8">
         <f>SUM(F6:F35)+SUM(H6:H35)</f>
-        <v>59.4</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
@@ -1300,7 +1314,7 @@
       </c>
       <c r="F38" s="1">
         <f>F37/2</f>
-        <v>29.7</v>
+        <v>35.950000000000003</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
@@ -1309,7 +1323,7 @@
       </c>
       <c r="F39" s="1">
         <f>SUM(F6:F35)-F38</f>
-        <v>11.7</v>
+        <v>5.4499999999999957</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
@@ -1318,7 +1332,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM(H6:H35)-F38</f>
-        <v>-11.7</v>
+        <v>-5.4500000000000028</v>
       </c>
     </row>
   </sheetData>
@@ -1336,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,8 +1506,12 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
@@ -1670,7 +1688,7 @@
       </c>
       <c r="F38" s="8">
         <f>SUM(F6:F36)+SUM(H6:H36)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
@@ -1679,7 +1697,7 @@
       </c>
       <c r="F39" s="1">
         <f>F38/2</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
@@ -1688,7 +1706,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM(F6:F36)-F39</f>
-        <v>0</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
@@ -1697,7 +1715,7 @@
       </c>
       <c r="F41" s="1">
         <f>SUM(H6:H36)-F39</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
